--- a/biology/Botanique/Jules_Vacherot/Jules_Vacherot.xlsx
+++ b/biology/Botanique/Jules_Vacherot/Jules_Vacherot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Vacherot (Jussey, 10 septembre 1862 - Boulogne-Billancourt, 5 septembre 1925[1]) est un jardinier et architecte paysagiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Vacherot (Jussey, 10 septembre 1862 - Boulogne-Billancourt, 5 septembre 1925) est un jardinier et architecte paysagiste français.
 Architecte paysagiste en chef de la ville de Paris, jardinier en chef des expositions universelles, de 1900, 1904, 1906, 1910, 1911 et 1913 il est le créateur de nombreux parcs et jardins.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jardin de l'hôtel de Jules Potin (Neuilly-sur-Seine).
 Parc du château des Milandes (Castelnaud-la-Chapelle).
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les parcs et jardins au commencement du XXe siècle, Paris, Doin, 1908.
 Parcs et jardins, album d'études, précédé de la 2e édition de Les parcs et jardins au commencement du XXe siècle, Paris, Doin, 1925.</t>
